--- a/Tablas Uber.xlsx
+++ b/Tablas Uber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BasesDatos\Assigment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF566C-9BF1-48DC-AF57-BCCB474317A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F86D18-A837-4AEA-81C6-0D69B464C8A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{2D01F076-C3C0-4A1D-B327-24AFDFB4FF68}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{2D01F076-C3C0-4A1D-B327-24AFDFB4FF68}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>Longitud</t>
+  </si>
+  <si>
+    <t>iddetallefactura</t>
+  </si>
+  <si>
+    <t>idconductor</t>
+  </si>
+  <si>
+    <t>EnviarEmail</t>
   </si>
 </sst>
 </file>
@@ -349,9 +358,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -359,6 +365,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,15 +684,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5AD93F-535F-4DCE-8B41-B949A4C1FFE2}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -692,22 +701,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -835,22 +844,22 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -927,6 +936,9 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -953,41 +965,41 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>54</v>
       </c>
       <c r="M25" t="s">
@@ -1013,13 +1025,13 @@
       <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="K26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1042,10 +1054,10 @@
       <c r="K27" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1084,7 +1096,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
@@ -1106,7 +1118,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C32" t="s">
@@ -1117,7 +1129,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C33" t="s">
@@ -1135,24 +1147,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1183,6 +1195,9 @@
       <c r="C41" t="s">
         <v>74</v>
       </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1234,6 +1249,9 @@
       </c>
       <c r="C46" t="s">
         <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">

--- a/Tablas Uber.xlsx
+++ b/Tablas Uber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BasesDatos\Assigment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\uber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F86D18-A837-4AEA-81C6-0D69B464C8A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025CB187-FCFA-4891-88A7-230BD4A7932C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{2D01F076-C3C0-4A1D-B327-24AFDFB4FF68}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t>Id</t>
   </si>
@@ -281,10 +281,73 @@
     <t>iddetallefactura</t>
   </si>
   <si>
-    <t>idconductor</t>
-  </si>
-  <si>
-    <t>EnviarEmail</t>
+    <t>sendemail</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>yk</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>usuariocupon</t>
+  </si>
+  <si>
+    <t>cupon</t>
+  </si>
+  <si>
+    <t>idcupon</t>
+  </si>
+  <si>
+    <t>idprofile</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>Pagosconductor</t>
+  </si>
+  <si>
+    <t>PagosconductorDetalles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>Idpropietario</t>
+  </si>
+  <si>
+    <t>IdPagosconductor</t>
+  </si>
+  <si>
+    <t>idbancopropietario</t>
+  </si>
+  <si>
+    <t>idfactura</t>
+  </si>
+  <si>
+    <t>PagoUber</t>
+  </si>
+  <si>
+    <t>PagoPropietario</t>
+  </si>
+  <si>
+    <t>Deducciones</t>
+  </si>
+  <si>
+    <t>idConductor</t>
+  </si>
+  <si>
+    <t>valorneto</t>
+  </si>
+  <si>
+    <t>Idusuariocupon</t>
   </si>
 </sst>
 </file>
@@ -356,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -366,6 +429,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5AD93F-535F-4DCE-8B41-B949A4C1FFE2}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,16 +791,16 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -745,16 +811,16 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -765,16 +831,16 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -785,13 +851,13 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -802,9 +868,14 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
+      <c r="K6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -813,6 +884,9 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -842,439 +916,617 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
       </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
       </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>12</v>
+      </c>
+      <c r="M18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" t="s">
-        <v>59</v>
-      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O28" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="G42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" t="s">
         <v>61</v>
       </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
+      <c r="G46" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A13:N13"/>
+  <mergeCells count="9">
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A53:I54"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A24:O24"/>
-    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="A36:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
